--- a/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,98</t>
+          <t>0,89; 8,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 15,98</t>
+          <t>6,13; 16,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 20,4</t>
+          <t>7,92; 21,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,77; 46,59</t>
+          <t>26,26; 46,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 16,26</t>
+          <t>5,88; 15,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 13,46</t>
+          <t>2,96; 12,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,62; 22,78</t>
+          <t>9,75; 24,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,21; 31,68</t>
+          <t>20,27; 31,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,24</t>
+          <t>3,87; 10,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 12,82</t>
+          <t>5,24; 12,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 19,33</t>
+          <t>10,16; 19,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,05; 35,54</t>
+          <t>24,68; 35,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,25</t>
+          <t>4,12; 8,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,58</t>
+          <t>5,54; 10,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,16</t>
+          <t>9,62; 15,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,51; 27,42</t>
+          <t>19,42; 26,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 9,02</t>
+          <t>4,65; 8,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 13,77</t>
+          <t>8,58; 13,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,24</t>
+          <t>9,37; 14,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,04</t>
+          <t>15,47; 21,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 7,93</t>
+          <t>4,91; 7,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,24</t>
+          <t>7,74; 11,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,15</t>
+          <t>10,21; 14,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,15; 22,86</t>
+          <t>18,35; 22,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,33</t>
+          <t>4,46; 7,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,3</t>
+          <t>5,9; 9,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,74; 12,55</t>
+          <t>8,69; 12,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 17,76</t>
+          <t>12,39; 17,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,7</t>
+          <t>6,36; 9,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,24</t>
+          <t>5,81; 9,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,11</t>
+          <t>7,98; 11,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 17,9</t>
+          <t>14,05; 17,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,11</t>
+          <t>5,77; 8,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 8,58</t>
+          <t>6,28; 8,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 11,69</t>
+          <t>8,88; 11,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,74; 17,21</t>
+          <t>13,95; 17,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,23</t>
+          <t>5,51; 9,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,41</t>
+          <t>6,09; 10,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,53</t>
+          <t>10,52; 15,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 19,09</t>
+          <t>13,56; 19,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,76</t>
+          <t>8,23; 12,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,07</t>
+          <t>6,72; 11,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,97</t>
+          <t>9,9; 14,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 14,81</t>
+          <t>7,92; 15,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 10,84</t>
+          <t>7,63; 10,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 10,08</t>
+          <t>7,0; 10,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,55</t>
+          <t>10,85; 14,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 15,95</t>
+          <t>10,83; 16,05</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 11,9</t>
+          <t>8,06; 11,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,45; 11,51</t>
+          <t>7,76; 11,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,58; 17,28</t>
+          <t>12,38; 16,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,05; 19,82</t>
+          <t>15,07; 19,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,61</t>
+          <t>7,83; 11,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,19; 15,33</t>
+          <t>11,22; 15,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,46; 20,52</t>
+          <t>15,37; 20,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,04; 23,4</t>
+          <t>19,05; 23,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,21</t>
+          <t>8,52; 11,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,26; 13,15</t>
+          <t>9,96; 13,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,11</t>
+          <t>14,63; 18,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,86; 21,19</t>
+          <t>18,0; 21,18</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,3</t>
+          <t>6,34; 8,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,42</t>
+          <t>7,46; 9,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,37; 13,79</t>
+          <t>11,43; 13,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,52; 19,2</t>
+          <t>16,33; 19,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,75</t>
+          <t>7,7; 9,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,95; 11,05</t>
+          <t>8,99; 10,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,45</t>
+          <t>11,91; 14,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,71; 18,58</t>
+          <t>15,63; 18,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,75</t>
+          <t>7,43; 8,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,53; 9,9</t>
+          <t>8,45; 9,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,0; 13,69</t>
+          <t>12,03; 13,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,56; 18,58</t>
+          <t>16,51; 18,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,61</t>
+          <t>0,91; 7,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 16,95</t>
+          <t>5,96; 17,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 21,15</t>
+          <t>8,01; 20,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 15,77</t>
+          <t>5,41; 16,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 12,9</t>
+          <t>2,92; 13,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,75; 24,03</t>
+          <t>9,42; 23,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 10,24</t>
+          <t>3,82; 9,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 12,6</t>
+          <t>5,85; 12,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 19,59</t>
+          <t>10,23; 19,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,21</t>
+          <t>4,09; 8,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,28</t>
+          <t>5,78; 10,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 15,15</t>
+          <t>9,46; 15,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,92</t>
+          <t>4,83; 9,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 13,89</t>
+          <t>8,53; 14,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 14,75</t>
+          <t>8,93; 14,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,87</t>
+          <t>5,0; 7,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,38</t>
+          <t>7,83; 11,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,21; 14,01</t>
+          <t>10,02; 14,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,58</t>
+          <t>4,35; 7,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,31</t>
+          <t>5,9; 9,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,69; 12,5</t>
+          <t>8,6; 12,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 9,85</t>
+          <t>6,43; 10,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,16</t>
+          <t>5,91; 9,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,94</t>
+          <t>7,99; 11,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 8,19</t>
+          <t>5,68; 8,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,69</t>
+          <t>6,22; 8,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,88; 11,67</t>
+          <t>8,72; 11,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,95</t>
+          <t>5,79; 10,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,38</t>
+          <t>6,09; 10,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 15,5</t>
+          <t>10,58; 15,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 12,91</t>
+          <t>8,42; 12,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,05</t>
+          <t>6,69; 10,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 14,97</t>
+          <t>10,05; 15,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 10,73</t>
+          <t>7,51; 10,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,26</t>
+          <t>6,96; 10,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 14,47</t>
+          <t>10,82; 14,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 11,95</t>
+          <t>8,08; 12,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,67</t>
+          <t>7,74; 11,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,38; 16,91</t>
+          <t>12,42; 16,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,83; 11,33</t>
+          <t>7,82; 11,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 15,54</t>
+          <t>10,99; 15,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,37; 20,34</t>
+          <t>15,41; 20,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,52; 11,17</t>
+          <t>8,39; 11,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,01</t>
+          <t>9,85; 12,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,63; 18,06</t>
+          <t>14,61; 18,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,24</t>
+          <t>6,4; 8,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,39</t>
+          <t>7,29; 9,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,43; 13,71</t>
+          <t>11,51; 13,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,7; 9,76</t>
+          <t>7,85; 9,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,99; 10,95</t>
+          <t>8,95; 10,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,91; 14,48</t>
+          <t>11,96; 14,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 8,74</t>
+          <t>7,4; 8,8</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 9,87</t>
+          <t>8,38; 9,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,03; 13,72</t>
+          <t>12,06; 13,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,72</t>
+          <t>0,88; 7,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 17,03</t>
+          <t>5,84; 15,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 20,29</t>
+          <t>7,75; 20,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,26; 46,37</t>
+          <t>26,77; 46,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 16,2</t>
+          <t>5,63; 16,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 13,13</t>
+          <t>2,95; 13,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 23,15</t>
+          <t>9,62; 22,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,27; 31,93</t>
+          <t>20,21; 31,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,87</t>
+          <t>3,8; 10,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,85; 12,58</t>
+          <t>5,65; 12,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 19,39</t>
+          <t>9,95; 19,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,68; 35,37</t>
+          <t>25,05; 35,54</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 8,13</t>
+          <t>4,34; 8,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 10,31</t>
+          <t>5,65; 10,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,46; 15,26</t>
+          <t>9,56; 15,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,42; 26,81</t>
+          <t>19,51; 27,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,18</t>
+          <t>4,72; 9,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,53; 14,2</t>
+          <t>8,41; 13,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 14,41</t>
+          <t>8,8; 14,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,47; 21,07</t>
+          <t>15,49; 21,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,86</t>
+          <t>5,01; 7,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,83; 11,25</t>
+          <t>7,84; 11,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 14,17</t>
+          <t>10,01; 14,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,35; 22,77</t>
+          <t>18,15; 22,86</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,52</t>
+          <t>4,44; 7,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,2</t>
+          <t>5,8; 9,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,6; 12,65</t>
+          <t>8,74; 12,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,39; 17,84</t>
+          <t>12,32; 17,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,15</t>
+          <t>6,2; 9,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,25</t>
+          <t>5,72; 9,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 11,87</t>
+          <t>8,16; 12,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 17,72</t>
+          <t>14,24; 17,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,09</t>
+          <t>5,8; 8,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 8,62</t>
+          <t>6,32; 8,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 11,5</t>
+          <t>8,8; 11,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,95; 17,14</t>
+          <t>13,74; 17,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,17</t>
+          <t>5,62; 10,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,7</t>
+          <t>6,12; 10,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,58; 15,95</t>
+          <t>10,63; 15,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,09</t>
+          <t>13,59; 19,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 12,97</t>
+          <t>8,21; 12,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,69; 10,86</t>
+          <t>6,8; 11,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 15,17</t>
+          <t>10,23; 14,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,92; 15,03</t>
+          <t>7,9; 14,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 10,61</t>
+          <t>7,54; 10,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,96; 10,05</t>
+          <t>7,05; 10,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,82; 14,59</t>
+          <t>10,87; 14,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 16,05</t>
+          <t>10,68; 15,95</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,01</t>
+          <t>8,11; 11,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,74</t>
+          <t>7,45; 11,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,42; 16,99</t>
+          <t>12,58; 17,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 19,9</t>
+          <t>15,05; 19,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 11,48</t>
+          <t>7,72; 11,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,99; 15,4</t>
+          <t>11,19; 15,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,41; 20,67</t>
+          <t>15,46; 20,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,05; 23,64</t>
+          <t>19,04; 23,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,05</t>
+          <t>8,42; 11,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,85; 12,86</t>
+          <t>10,26; 13,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,61; 18,13</t>
+          <t>14,78; 18,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,0; 21,18</t>
+          <t>17,86; 21,19</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,27</t>
+          <t>6,39; 8,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 9,42</t>
+          <t>7,45; 9,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,51; 13,87</t>
+          <t>11,37; 13,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,33; 19,41</t>
+          <t>16,52; 19,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,85; 9,77</t>
+          <t>7,74; 9,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,95; 10,96</t>
+          <t>8,95; 11,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,41</t>
+          <t>12,04; 14,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,63; 18,53</t>
+          <t>15,71; 18,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,8</t>
+          <t>7,36; 8,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,38; 9,9</t>
+          <t>8,53; 9,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,06; 13,79</t>
+          <t>12,0; 13,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,51; 18,59</t>
+          <t>16,56; 18,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>21,72%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,98</t>
+          <t>4,01; 7,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 15,98</t>
+          <t>6,28; 10,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 20,4</t>
+          <t>10,1; 15,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,77; 46,59</t>
+          <t>21,41; 28,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 16,26</t>
+          <t>5,48; 9,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 13,46</t>
+          <t>8,33; 12,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,62; 22,78</t>
+          <t>9,72; 14,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,21; 31,68</t>
+          <t>14,83; 21,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,24</t>
+          <t>5,14; 7,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 12,82</t>
+          <t>7,78; 10,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 19,33</t>
+          <t>10,62; 14,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,05; 35,54</t>
+          <t>18,92; 23,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>13,99%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,25</t>
+          <t>4,44; 7,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,58</t>
+          <t>5,8; 9,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,16</t>
+          <t>8,74; 12,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,51; 27,42</t>
+          <t>6,86; 16,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 9,02</t>
+          <t>6,2; 9,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 13,77</t>
+          <t>5,72; 9,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,24</t>
+          <t>8,16; 12,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,04</t>
+          <t>14,28; 17,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 7,93</t>
+          <t>5,8; 8,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,24</t>
+          <t>6,32; 8,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,15</t>
+          <t>8,8; 11,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,15; 22,86</t>
+          <t>9,4; 16,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>10,48%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>15,14%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,94%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,33%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,89%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>15,91%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>12,89%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,33</t>
+          <t>5,62; 10,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,3</t>
+          <t>6,12; 10,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,74; 12,55</t>
+          <t>10,63; 15,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 17,76</t>
+          <t>13,61; 19,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,7</t>
+          <t>8,21; 12,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,24</t>
+          <t>6,8; 11,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,11</t>
+          <t>10,23; 14,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 17,9</t>
+          <t>5,15; 14,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,11</t>
+          <t>7,54; 10,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 8,58</t>
+          <t>7,05; 10,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 11,69</t>
+          <t>10,87; 14,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,74; 17,21</t>
+          <t>8,38; 15,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>18,51%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,23</t>
+          <t>8,11; 11,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,41</t>
+          <t>7,45; 11,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,53</t>
+          <t>12,58; 17,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 19,09</t>
+          <t>14,92; 19,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,76</t>
+          <t>7,72; 11,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,07</t>
+          <t>11,19; 15,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,97</t>
+          <t>15,46; 20,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 14,81</t>
+          <t>15,86; 22,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 10,84</t>
+          <t>8,42; 11,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 10,08</t>
+          <t>10,26; 13,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,55</t>
+          <t>14,78; 18,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 15,95</t>
+          <t>16,31; 20,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>16,48%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 11,9</t>
+          <t>6,39; 8,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,45; 11,51</t>
+          <t>7,45; 9,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,58; 17,28</t>
+          <t>11,37; 13,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,05; 19,82</t>
+          <t>13,41; 18,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,61</t>
+          <t>7,74; 9,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,19; 15,33</t>
+          <t>8,95; 11,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,46; 20,52</t>
+          <t>12,04; 14,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,04; 23,4</t>
+          <t>13,49; 17,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,21</t>
+          <t>7,36; 8,75</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,26; 13,15</t>
+          <t>8,53; 9,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,11</t>
+          <t>12,0; 13,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,86; 21,19</t>
+          <t>14,49; 17,71</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,32%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>17,82%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,76%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,95%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>13,2%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>17,36%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8,03%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>9,15%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>12,89%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,39; 8,3</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 9,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>11,37; 13,79</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>16,52; 19,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 9,75</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8,95; 11,05</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>12,04; 14,45</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>15,71; 18,58</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 8,75</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>8,53; 9,9</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>12,0; 13,69</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>16,56; 18,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,34</t>
+          <t>4,03; 7,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,47</t>
+          <t>6,26; 10,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,15</t>
+          <t>9,83; 15,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,41; 28,88</t>
+          <t>21,78; 28,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,4</t>
+          <t>5,42; 9,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 12,83</t>
+          <t>7,99; 12,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,86</t>
+          <t>9,74; 14,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,83; 21,48</t>
+          <t>14,82; 21,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,67</t>
+          <t>5,2; 7,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 10,89</t>
+          <t>7,82; 10,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,62; 14,12</t>
+          <t>10,61; 14,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 23,98</t>
+          <t>18,8; 23,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,33</t>
+          <t>4,37; 7,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,3</t>
+          <t>5,86; 9,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,74; 12,55</t>
+          <t>8,67; 12,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,86; 16,44</t>
+          <t>6,37; 16,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,7</t>
+          <t>6,37; 9,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,24</t>
+          <t>5,92; 9,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,11</t>
+          <t>7,96; 11,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,28; 17,96</t>
+          <t>14,29; 17,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,11</t>
+          <t>5,72; 8,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 8,58</t>
+          <t>6,28; 8,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 11,69</t>
+          <t>8,7; 11,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 16,29</t>
+          <t>9,32; 16,36</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,23</t>
+          <t>5,47; 9,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,41</t>
+          <t>6,07; 10,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,53</t>
+          <t>10,39; 15,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 19,24</t>
+          <t>13,53; 18,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,76</t>
+          <t>8,4; 13,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,07</t>
+          <t>6,84; 11,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,97</t>
+          <t>10,12; 15,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 14,18</t>
+          <t>5,59; 14,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 10,84</t>
+          <t>7,57; 10,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 10,08</t>
+          <t>6,98; 10,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,55</t>
+          <t>11,07; 14,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 15,45</t>
+          <t>8,5; 15,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 11,9</t>
+          <t>7,89; 11,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 11,51</t>
+          <t>7,86; 11,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 17,28</t>
+          <t>12,41; 17,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,92; 19,94</t>
+          <t>14,68; 20,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,61</t>
+          <t>7,9; 11,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 15,33</t>
+          <t>11,04; 15,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 20,52</t>
+          <t>15,48; 20,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 22,02</t>
+          <t>15,71; 21,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,21</t>
+          <t>8,47; 11,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,26; 13,15</t>
+          <t>10,02; 13,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,11</t>
+          <t>14,79; 18,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 20,34</t>
+          <t>16,16; 20,33</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,3</t>
+          <t>6,4; 8,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,42</t>
+          <t>7,36; 9,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,37; 13,79</t>
+          <t>11,55; 13,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 18,6</t>
+          <t>12,92; 18,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,75</t>
+          <t>7,8; 9,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,95; 11,05</t>
+          <t>8,9; 10,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,45</t>
+          <t>11,92; 14,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,49; 17,81</t>
+          <t>13,16; 17,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,75</t>
+          <t>7,35; 8,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 9,9</t>
+          <t>8,47; 9,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,0; 13,69</t>
+          <t>12,02; 13,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,49; 17,71</t>
+          <t>14,29; 17,84</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares unipersonales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>38174</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>58140</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>83689</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>158762</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48901</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>71695</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>81871</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>136807</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>87075</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>129835</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>165560</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>295569</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27955; 52232</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>44024; 73554</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>66332; 101775</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>138404; 183900</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>37339; 64391</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>55703; 87437</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65510; 99530</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>107488; 155432</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>71822; 106864</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>109584; 153042</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>143025; 191580</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>255797; 322985</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55183</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>75153</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>107171</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>148129</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>76917</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>75693</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>103123</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>152892</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>132100</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>150846</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>210294</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>301021</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>42052; 73184</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>59686; 95569</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>88623; 128816</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>75975; 196280</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>61697; 93760</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61090; 93976</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>83040; 125062</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>137019; 170471</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>110363; 157184</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>128732; 175649</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>179757; 240740</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>200588; 352085</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>51940</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>61450</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>98633</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>113387</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>71078</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>68001</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>96591</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>97784</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>123018</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>129451</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>195224</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>211172</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>37083; 67431</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>46012; 79888</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>78899; 118811</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>95342; 133353</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>57458; 89025</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53149; 87330</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>79406; 119439</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>52209; 133861</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>103081; 147861</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>107178; 154852</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>170958; 224012</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>139194; 250512</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>93352</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>90322</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>136602</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>159113</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>99236</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>138698</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>186413</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>215027</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>192588</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>229020</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>323015</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>374140</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>74297; 111748</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>74507; 112736</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>116328; 160704</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>136013; 186765</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>82020; 120244</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>116149; 163779</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>161589; 215009</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>172059; 240521</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>167774; 220284</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>200265; 260802</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>293032; 362230</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>326724; 411097</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1817</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>238649</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>285066</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>426095</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>579391</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>296132</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>354087</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>467998</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>602510</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>534781</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>639153</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>894093</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1181902</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>209536; 267820</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>252379; 322286</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>391908; 467061</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>446849; 643924</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>263461; 331569</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>316856; 391205</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>422524; 510518</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>488579; 659073</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>489298; 577801</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>591395; 689537</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>834114; 953145</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1025000; 1279680</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>